--- a/biology/Microbiologie/Helicobacteraceae/Helicobacteraceae.xlsx
+++ b/biology/Microbiologie/Helicobacteraceae/Helicobacteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Helicobacteraceae sont une famille de bactéries de l’ordre des Campylobacterales et de la classe des Epsilonproteobacteria.
 Le genre type est Helicobacter, dont les espèces sont des bacilles Gram négatif, spiralés, mobiles par ciliature polaire.
@@ -512,9 +524,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon List of Prokaryotic names with Standing in Nomenclature[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon List of Prokaryotic names with Standing in Nomenclature :
 "Flexispira" Bryner 1987
 Helicobacter Goodwin et al. 1989
 "Pseudohelicobacter" Waite et al. 2019
